--- a/Practice Sessions/Session 1/Data/Employment.xlsx
+++ b/Practice Sessions/Session 1/Data/Employment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schul\Dropbox\CRED_Thanh\Training 3\Session 1 revised\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onanongchinskul/Dropbox/DGE-CRED-master/DGE-CRED-master/Practice Sessions/Session 1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8718DD0-E0AE-433A-921A-B0812973580B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9748A7-7A04-4742-BE0B-03ADD73619FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8994" xr2:uid="{FD65C15F-ABAB-4692-BA5D-6149ECD04309}"/>
+    <workbookView xWindow="3540" yWindow="1300" windowWidth="26680" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -37,10 +37,10 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{1DC67526-D2A9-4C50-B392-A3E372B03182}" keepAlive="1" name="Query - E02 39-40(1)" description="Connection to the 'E02 39-40(1)' query in the workbook." type="5" refreshedVersion="0" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - E02 39-40(1)" description="Connection to the 'E02 39-40(1)' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;E02 39-40(1)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [E02 39-40(1)]"/>
   </connection>
-  <connection id="2" xr16:uid="{58118231-E647-476E-A2EA-533A5647F4D5}" keepAlive="1" name="Query - E02 39-40(2)" description="Connection to the 'E02 39-40(2)' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - E02 39-40(2)" description="Connection to the 'E02 39-40(2)' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;E02 39-40(2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [E02 39-40(2)]"/>
   </connection>
 </connections>
@@ -480,20 +480,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8AE6B6-5CE9-46C2-8DB6-E41254CB27FB}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="47.8828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -509,15 +509,19 @@
         <v>5428250</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2041980</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f>B3/B2</f>
+        <v>0.37617648413392896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -525,7 +529,7 @@
         <v>19870</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -533,7 +537,7 @@
         <v>999980</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -541,7 +545,7 @@
         <v>16710</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34.799999999999997">
+    <row r="7" spans="1:3" ht="38">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -549,15 +553,19 @@
         <v>14660</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>427320</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="34.799999999999997">
+      <c r="C8">
+        <f>SUM(B4:B8)/B2</f>
+        <v>0.27237875926864091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="38">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -565,7 +573,7 @@
         <v>728560</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -573,7 +581,7 @@
         <v>176380</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -581,7 +589,7 @@
         <v>270510</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -589,7 +597,7 @@
         <v>30760</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -597,7 +605,7 @@
         <v>40860</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -605,7 +613,7 @@
         <v>26050</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -613,7 +621,7 @@
         <v>27550</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -621,7 +629,7 @@
         <v>33520</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="34.799999999999997">
+    <row r="17" spans="1:3" ht="57">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -629,7 +637,7 @@
         <v>165210</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -637,7 +645,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -645,7 +653,7 @@
         <v>58730</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -653,7 +661,7 @@
         <v>27270</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -661,7 +669,7 @@
         <v>91620</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="69.599999999999994">
+    <row r="22" spans="1:3" ht="76">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -669,15 +677,19 @@
         <v>20140</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23">
         <v>570</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f>SUM(B9:B23)/B2</f>
+        <v>0.35144475659743013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
